--- a/files/database.xlsx
+++ b/files/database.xlsx
@@ -1,49 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6840" yWindow="2265" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rice" sheetId="1" r:id="rId1"/>
-    <sheet name="soup" sheetId="2" r:id="rId2"/>
-    <sheet name="main_dish" sheetId="3" r:id="rId3"/>
-    <sheet name="side_dish" sheetId="4" r:id="rId4"/>
-    <sheet name="kimchi" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soup" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main_dish" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="side_dish" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kimchi" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="some" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,23 +57,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -114,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +224,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +276,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,71 +468,2770 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>백미밥</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>어묵국</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>어묵</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>무</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>마파두부</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>두부</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>돼지고기</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>피망</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>전분</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>된장</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>고추장</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>단배추나물</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>얼갈이배추</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>깨소금</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>찰흑미밥</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">버섯전골 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>배추</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>느타리버섯</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>팽이버섯</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>표고버섯</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>떡갈비구이</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>떡갈비</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아삭이고추된장무침 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>고추</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>된장</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>깨소금</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>오므라이스</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>달걀</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>당근</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>토마토 케첩</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>쇠고기</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>피망</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>참깨</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>쑥갓맑은국</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>쑥갓</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>왕새우튀김</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>새우</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>밀</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>달걀</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>기장밥</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>기장</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>꽃게된장국</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>게</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>두부</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>호박</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>된장</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>파채돼지불고기</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>돼지고기</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>당근</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>고구마샐러드</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>고구마</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>마요네즈</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>차조밥</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>조</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>만둣국</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>만두</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>흰살생선전</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>명태</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>달걀</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>밀</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>부추겉절이</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>부추</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>멸치젓</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>고춧가루</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>백미밥1/2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>베이컨오일파스타</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>파스타</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>베이컨</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>양송이버섯</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>올리브유</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>버터</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>닭봉조림</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>닭고기</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>백미밥</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>쇠고기뭇국</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>무</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>쇠고기</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>김달걀말이</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>달걀</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>김</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>크래미양파볶음</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>게맛살</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>깨소금</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>찰흑미밥</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감자고추장찌개 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>감자</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>고추장</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연두부&amp;양념장 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>두부</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>참깨</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">애호박나물 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>호박</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>참깨</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>참치마요덮밥</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>가다랑어</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>달걀</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>마요네즈</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>데리야끼 소스</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>들깻잎</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>김칫국</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>다시마</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">연근조림 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>연근</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>물엿</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>청주</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>식초</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>깨소금</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>깍두기</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>기장밥</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>기장</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">황탯국 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>무</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>명태</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>삼겹살통마늘볶음</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>돼지고기</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">청경채겉절이 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>청경채</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>차조밥</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>조</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>버섯맑은국</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>느타리버섯</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>멸치</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>새우까스&amp;타르타르소스</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>새우 튀김용</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>타르타르소스</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">쫄면채소무침 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>국수</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>양배추</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>고추장</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>당근</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>오이</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>식초</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>찹쌀현미밥</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>찹쌀</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>육개장</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>쇠고기</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>숙주나물</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>얼갈이배추</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>고사리</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>무</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>고춧가루</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>훈제오리구이</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>오리고기</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>브로콜리숙회
+&amp;흑임자드레싱</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>브로콜리</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>마요네즈</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>식초</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>참깨</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>백미밥</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>멥쌀</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">들깨미역국 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>미역</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>들깨</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>쇠불고기</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>쇠고기</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>양파</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>당근</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>간장</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>콩기름</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>설탕</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>후추</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>콩나물무침</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>콩나물</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>고춧가루</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>깨소금</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>마늘</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>소금</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>참기름</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>파</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>배추김치</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>김치</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>